--- a/Matriz_de_papers_actualizado.xlsx
+++ b/Matriz_de_papers_actualizado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="259">
+  <si>
+    <t>Copyright</t>
+  </si>
   <si>
     <t>Journal</t>
   </si>
@@ -54,9 +57,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Adjuvant Pertuzumab and Trastuzumab in Early HER2-Positive Breast Cancer</t>
-  </si>
-  <si>
     <t>Pertuzumab</t>
   </si>
   <si>
@@ -408,9 +408,6 @@
     <t>10.1016/S1470-2045(14)70362-6</t>
   </si>
   <si>
-    <t>Brain metastases</t>
-  </si>
-  <si>
     <t>APHINITY</t>
   </si>
   <si>
@@ -561,25 +558,244 @@
     <t>Kadcyla</t>
   </si>
   <si>
+    <t>NSABP B-31 and NCCTG N9831</t>
+  </si>
+  <si>
+    <t>BCIRG-006</t>
+  </si>
+  <si>
+    <t>M77001</t>
+  </si>
+  <si>
+    <t>IMpassion130</t>
+  </si>
+  <si>
+    <t>Brain metastases (Lung)</t>
+  </si>
+  <si>
+    <t>Overall Survival Benefit in Patients With Rituximab-Refractory Indolent Non-Hodgkin Lymphoma Who Received Obinutuzumab Plus Bendamustine Induction and Obinutuzumab Maintenance in the GADOLIN Study.</t>
+  </si>
+  <si>
+    <t>Association of early disease progression and very poor survival in the GALLIUM study in follicular lymphoma: benefit of obinutuzumab in reducing the rate of early progression.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29584548</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2Vr3r4j</t>
+  </si>
+  <si>
+    <t>10.1200/JCO.2017.76.3656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Hodgkin Lymphoma </t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/30573503</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>No aprobado</t>
+  </si>
+  <si>
+    <t>Haematologica</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2G1Wt0u</t>
+  </si>
+  <si>
+    <t>10.3324/haematol.2018.209015</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2Vqmege</t>
+  </si>
+  <si>
+    <t>Ocrelizumab versus Placebo in Primary Progressive Multiple Sclerosis.</t>
+  </si>
+  <si>
+    <t>Ocrelizumab</t>
+  </si>
+  <si>
+    <t>Ocrevus</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28002688</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28002679</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2WO54Jw</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1606468</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>OPERA I and OPERA II</t>
+  </si>
+  <si>
+    <t>ORATORIO</t>
+  </si>
+  <si>
+    <t>Ocrelizumab versus Interferon Beta-1a in Relapsing Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2UhhNYu</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1601277</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22884505</t>
+  </si>
+  <si>
+    <t>Subcutaneous versus intravenous administration of (neo)adjuvant trastuzumab in patients with HER2-positive, clinical stage I-III breast cancer (HannaH study): a phase 3, open-label, multicentre, randomised trial.</t>
+  </si>
+  <si>
+    <t>10.1016/S1470-2045(12)70329-7</t>
+  </si>
+  <si>
+    <t>HANNAH</t>
+  </si>
+  <si>
+    <t>Adjuvant Pertuzumab and Trastuzumab in Early HER2-Positive Breast Cancer APHINITY TRIAL</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2OTgMjg</t>
+  </si>
+  <si>
+    <t>Neoadjuvant trastuzumab, pertuzumab, and chemotherapy versus trastuzumab emtansine plus pertuzumab in patients with HER2-positive breast cancer (KRISTINE): a randomised, open-label, multicentre, phase 3 trial.</t>
+  </si>
+  <si>
+    <t>10.1016/S1470-2045(17)30716-7</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2UwV226</t>
+  </si>
+  <si>
+    <t>KRISTINE</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29175149</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/?term=10.1016%2Fj.ejca.2016.03.087</t>
+  </si>
+  <si>
+    <t>HannaH phase III randomised study: Association of total pathological complete response with event-free survival in HER2-positive early breast cancer treated with neoadjuvant-adjuvant trastuzumab after 2 years of treatment-free follow-up</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejca.2016.03.087</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2uOn0bh</t>
+  </si>
+  <si>
+    <t>European Journal of Cancer</t>
+  </si>
+  <si>
+    <t>Trastuzumab Emtansine With or Without Pertuzumab Versus Trastuzumab Plus Taxane for Human Epidermal Growth Factor Receptor 2-Positive, Advanced Breast Cancer: Primary Results From the Phase III MARIANNE Study</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28056202</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2D4gnps</t>
+  </si>
+  <si>
+    <t>10.1200/JCO.2016.67.4887</t>
+  </si>
+  <si>
+    <t>MARIANNE</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24793816</t>
+  </si>
+  <si>
+    <t>Trastuzumab emtansine versus treatment of physician's choice for pretreated HER2-positive advanced breast cancer (TH3RESA): a randomised, open-label, phase 3 trial</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2uQ5pzy</t>
+  </si>
+  <si>
+    <t>10.1016/S1470-2045(14)70178-0</t>
+  </si>
+  <si>
+    <t>TH3RESA</t>
+  </si>
+  <si>
+    <t>Randomized Phase III Trial of Trastuzumab Plus Capecitabine With or Without Pertuzumab in Patients With Human Epidermal Growth Factor Receptor 2-Positive Metastatic Breast Cancer Who Experienced Disease Progression During or After Trastuzumab-Based Therapy</t>
+  </si>
+  <si>
+    <t>10.1200/JCO.2016.70.6267</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2VBHUGp</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28437161</t>
+  </si>
+  <si>
+    <t>Safety and tolerability of subcutaneous trastuzumab for the adjuvant treatment of human epidermal growth factor receptor 2-positive early breast cancer: SafeHer phase III study's primary analysis of 2573 patients</t>
+  </si>
+  <si>
+    <t>Herceptin SC</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed?term=10.1016%2Fj.ejca.2017.05.010</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2D1KyxK</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejca.2017.05.010</t>
+  </si>
+  <si>
+    <t>SafeHer</t>
+  </si>
+  <si>
+    <t>Preference for subcutaneous or intravenous administration of trastuzumab in patients with HER2-positive early breast cancer (PrefHer): an open-label randomised study</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23965225</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2D6TsKu</t>
+  </si>
+  <si>
+    <t>10.1016/S1470-2045(13)70383-8</t>
+  </si>
+  <si>
+    <t>PrefHer</t>
+  </si>
+  <si>
+    <t>Pherexa</t>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>Indicacion</t>
+  </si>
+  <si>
     <t>Journal_Link</t>
   </si>
   <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Farmaco_N_C</t>
+  </si>
+  <si>
+    <t>Farmaco_N_Q</t>
+  </si>
+  <si>
     <t>PUBMED_Link</t>
-  </si>
-  <si>
-    <t>Condicion</t>
-  </si>
-  <si>
-    <t>Indicacion</t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Farmaco_N_C</t>
-  </si>
-  <si>
-    <t>Farmaco_N_Q</t>
   </si>
 </sst>
 </file>
@@ -610,7 +826,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -622,12 +837,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -658,31 +879,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -965,80 +1188,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="145.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="120.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
@@ -1049,10 +1276,13 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="K2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1064,80 +1294,86 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>9</v>
@@ -1145,9 +1381,12 @@
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1160,218 +1399,239 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="K10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1384,122 +1644,134 @@
         <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1512,58 +1784,64 @@
         <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="K17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1576,58 +1854,64 @@
         <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1640,58 +1924,64 @@
         <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1704,45 +1994,48 @@
         <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>8</v>
@@ -1753,105 +2046,117 @@
       <c r="J24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="K24" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="K27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1864,26 +2169,29 @@
         <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="K28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1896,26 +2204,29 @@
         <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1928,26 +2239,29 @@
         <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="K30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1960,26 +2274,29 @@
         <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="K31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1992,26 +2309,29 @@
         <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="K32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2024,26 +2344,29 @@
         <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="K33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2056,358 +2379,781 @@
         <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="K34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="I35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="G46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="K53" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>155</v>
+      <c r="D54" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId1"/>
-    <hyperlink ref="F42" r:id="rId2"/>
-    <hyperlink ref="F41" r:id="rId3"/>
-    <hyperlink ref="F40" r:id="rId4"/>
-    <hyperlink ref="F39" r:id="rId5"/>
-    <hyperlink ref="F38" r:id="rId6"/>
-    <hyperlink ref="F37" r:id="rId7"/>
-    <hyperlink ref="F36" r:id="rId8"/>
-    <hyperlink ref="F35" r:id="rId9"/>
-    <hyperlink ref="F34" r:id="rId10"/>
-    <hyperlink ref="F33" r:id="rId11"/>
-    <hyperlink ref="F32" r:id="rId12"/>
-    <hyperlink ref="F31" r:id="rId13"/>
-    <hyperlink ref="F2" r:id="rId14"/>
-    <hyperlink ref="F3" r:id="rId15"/>
-    <hyperlink ref="F4" r:id="rId16"/>
-    <hyperlink ref="F5" r:id="rId17"/>
-    <hyperlink ref="F30" r:id="rId18"/>
-    <hyperlink ref="F29" r:id="rId19"/>
-    <hyperlink ref="F28" r:id="rId20"/>
-    <hyperlink ref="F27" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F25" r:id="rId23"/>
-    <hyperlink ref="F24" r:id="rId24"/>
-    <hyperlink ref="F23" r:id="rId25"/>
-    <hyperlink ref="F22" r:id="rId26"/>
-    <hyperlink ref="F21" r:id="rId27"/>
-    <hyperlink ref="F20" r:id="rId28"/>
-    <hyperlink ref="F19" r:id="rId29"/>
-    <hyperlink ref="F18" r:id="rId30"/>
-    <hyperlink ref="F17" r:id="rId31"/>
-    <hyperlink ref="F16" r:id="rId32"/>
-    <hyperlink ref="F15" r:id="rId33"/>
-    <hyperlink ref="F14" r:id="rId34"/>
-    <hyperlink ref="F13" r:id="rId35"/>
-    <hyperlink ref="F12" r:id="rId36"/>
-    <hyperlink ref="F11" r:id="rId37"/>
-    <hyperlink ref="F10" r:id="rId38"/>
-    <hyperlink ref="F9" r:id="rId39"/>
-    <hyperlink ref="F8" r:id="rId40"/>
-    <hyperlink ref="F7" r:id="rId41"/>
-    <hyperlink ref="F6" r:id="rId42"/>
+    <hyperlink ref="G38" r:id="rId1"/>
+    <hyperlink ref="G39" r:id="rId2"/>
+    <hyperlink ref="D45" r:id="rId3"/>
+    <hyperlink ref="D46" r:id="rId4"/>
+    <hyperlink ref="G46" r:id="rId5"/>
+    <hyperlink ref="D47" r:id="rId6"/>
+    <hyperlink ref="D48" r:id="rId7"/>
+    <hyperlink ref="G48" r:id="rId8"/>
+    <hyperlink ref="G49" r:id="rId9"/>
+    <hyperlink ref="D49" r:id="rId10"/>
+    <hyperlink ref="D51" r:id="rId11"/>
+    <hyperlink ref="G51" r:id="rId12"/>
+    <hyperlink ref="D52" r:id="rId13"/>
+    <hyperlink ref="G52" r:id="rId14"/>
+    <hyperlink ref="D53" r:id="rId15"/>
+    <hyperlink ref="D54" r:id="rId16"/>
+    <hyperlink ref="G54" r:id="rId17"/>
+    <hyperlink ref="D55" r:id="rId18"/>
+    <hyperlink ref="G55" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>